--- a/prodinfo/mea/sa/output/res20260114.xlsx
+++ b/prodinfo/mea/sa/output/res20260114.xlsx
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-14 06:50:13</v>
+        <v>2026-01-14 11:54:22</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-14 06:50:19</v>
+        <v>2026-01-14 11:54:32</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-01-14 06:50:31</v>
+        <v>2026-01-14 11:54:38</v>
       </c>
       <c r="B4" t="str">
         <v>沙特</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-01-14 06:50:43</v>
+        <v>2026-01-14 11:54:46</v>
       </c>
       <c r="B5" t="str">
         <v>沙特</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-01-14 06:50:54</v>
+        <v>2026-01-14 11:54:54</v>
       </c>
       <c r="B6" t="str">
         <v>沙特</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-01-14 06:50:59</v>
+        <v>2026-01-14 11:55:00</v>
       </c>
       <c r="B7" t="str">
         <v>沙特</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-01-14 06:51:08</v>
+        <v>2026-01-14 11:55:07</v>
       </c>
       <c r="B8" t="str">
         <v>沙特</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-01-14 06:51:15</v>
+        <v>2026-01-14 11:55:18</v>
       </c>
       <c r="B9" t="str">
         <v>沙特</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-01-14 06:51:19</v>
+        <v>2026-01-14 11:55:24</v>
       </c>
       <c r="B10" t="str">
         <v>沙特</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-01-14 06:51:25</v>
+        <v>2026-01-14 11:55:28</v>
       </c>
       <c r="B11" t="str">
         <v>沙特</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-01-14 06:51:32</v>
+        <v>2026-01-14 11:55:34</v>
       </c>
       <c r="B12" t="str">
         <v>沙特</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-01-14 06:51:37</v>
+        <v>2026-01-14 11:55:40</v>
       </c>
       <c r="B13" t="str">
         <v>沙特</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-01-14 06:51:44</v>
+        <v>2026-01-14 11:55:50</v>
       </c>
       <c r="B14" t="str">
         <v>沙特</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-01-14 06:51:51</v>
+        <v>2026-01-14 11:56:00</v>
       </c>
       <c r="B15" t="str">
         <v>沙特</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-01-14 06:51:59</v>
+        <v>2026-01-14 11:56:11</v>
       </c>
       <c r="B16" t="str">
         <v>沙特</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-01-14 06:52:05</v>
+        <v>2026-01-14 11:56:21</v>
       </c>
       <c r="B17" t="str">
         <v>沙特</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-01-14 06:52:16</v>
+        <v>2026-01-14 11:56:29</v>
       </c>
       <c r="B18" t="str">
         <v>沙特</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-01-14 06:52:23</v>
+        <v>2026-01-14 11:56:36</v>
       </c>
       <c r="B19" t="str">
         <v>沙特</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-01-14 06:52:28</v>
+        <v>2026-01-14 11:56:45</v>
       </c>
       <c r="B20" t="str">
         <v>沙特</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-01-14 06:52:32</v>
+        <v>2026-01-14 11:56:56</v>
       </c>
       <c r="B21" t="str">
         <v>沙特</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2026-01-14 06:52:39</v>
+        <v>2026-01-14 11:57:05</v>
       </c>
       <c r="B22" t="str">
         <v>沙特</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2026-01-14 06:52:46</v>
+        <v>2026-01-14 11:57:10</v>
       </c>
       <c r="B23" t="str">
         <v>沙特</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2026-01-14 06:52:53</v>
+        <v>2026-01-14 11:57:17</v>
       </c>
       <c r="B24" t="str">
         <v>沙特</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2026-01-14 06:53:03</v>
+        <v>2026-01-14 11:57:22</v>
       </c>
       <c r="B25" t="str">
         <v>沙特</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2026-01-14 06:53:10</v>
+        <v>2026-01-14 11:57:33</v>
       </c>
       <c r="B26" t="str">
         <v>沙特</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2026-01-14 06:53:19</v>
+        <v>2026-01-14 11:57:41</v>
       </c>
       <c r="B27" t="str">
         <v>沙特</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2026-01-14 06:53:28</v>
+        <v>2026-01-14 11:57:47</v>
       </c>
       <c r="B28" t="str">
         <v>沙特</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2026-01-14 06:53:37</v>
+        <v>2026-01-14 11:57:57</v>
       </c>
       <c r="B29" t="str">
         <v>沙特</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2026-01-14 06:53:45</v>
+        <v>2026-01-14 11:58:01</v>
       </c>
       <c r="B30" t="str">
         <v>沙特</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2026-01-14 06:53:51</v>
+        <v>2026-01-14 11:58:07</v>
       </c>
       <c r="B31" t="str">
         <v>沙特</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2026-01-14 06:53:57</v>
+        <v>2026-01-14 11:58:15</v>
       </c>
       <c r="B32" t="str">
         <v>沙特</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2026-01-14 06:54:05</v>
+        <v>2026-01-14 11:58:27</v>
       </c>
       <c r="B33" t="str">
         <v>沙特</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2026-01-14 06:54:17</v>
+        <v>2026-01-14 11:58:35</v>
       </c>
       <c r="B34" t="str">
         <v>沙特</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2026-01-14 06:54:25</v>
+        <v>2026-01-14 11:58:44</v>
       </c>
       <c r="B35" t="str">
         <v>沙特</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2026-01-14 06:54:36</v>
+        <v>2026-01-14 11:58:51</v>
       </c>
       <c r="B36" t="str">
         <v>沙特</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2026-01-14 06:54:47</v>
+        <v>2026-01-14 11:58:57</v>
       </c>
       <c r="B37" t="str">
         <v>沙特</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2026-01-14 06:54:52</v>
+        <v>2026-01-14 11:59:08</v>
       </c>
       <c r="B38" t="str">
         <v>沙特</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2026-01-14 06:54:59</v>
+        <v>2026-01-14 11:59:20</v>
       </c>
       <c r="B39" t="str">
         <v>沙特</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2026-01-14 06:55:09</v>
+        <v>2026-01-14 11:59:29</v>
       </c>
       <c r="B40" t="str">
         <v>沙特</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2026-01-14 06:55:15</v>
+        <v>2026-01-14 11:59:35</v>
       </c>
       <c r="B41" t="str">
         <v>沙特</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2026-01-14 06:55:23</v>
+        <v>2026-01-14 11:59:42</v>
       </c>
       <c r="B42" t="str">
         <v>沙特</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2026-01-14 06:55:29</v>
+        <v>2026-01-14 11:59:48</v>
       </c>
       <c r="B43" t="str">
         <v>沙特</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2026-01-14 06:55:36</v>
+        <v>2026-01-14 11:59:54</v>
       </c>
       <c r="B44" t="str">
         <v>沙特</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2026-01-14 06:55:47</v>
+        <v>2026-01-14 12:00:04</v>
       </c>
       <c r="B45" t="str">
         <v>沙特</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2026-01-14 06:55:53</v>
+        <v>2026-01-14 12:00:16</v>
       </c>
       <c r="B46" t="str">
         <v>沙特</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2026-01-14 06:56:04</v>
+        <v>2026-01-14 12:00:21</v>
       </c>
       <c r="B47" t="str">
         <v>沙特</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2026-01-14 06:56:08</v>
+        <v>2026-01-14 12:00:30</v>
       </c>
       <c r="B48" t="str">
         <v>沙特</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2026-01-14 06:56:15</v>
+        <v>2026-01-14 12:00:36</v>
       </c>
       <c r="B49" t="str">
         <v>沙特</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2026-01-14 06:56:24</v>
+        <v>2026-01-14 12:00:40</v>
       </c>
       <c r="B50" t="str">
         <v>沙特</v>
